--- a/assets/配置/红点配置.xlsx
+++ b/assets/配置/红点配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyStudio\RedDotSystem\assets\配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MyStudio\RedDotSystem1\assets\配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978AF157-E6D4-4ADA-8AA5-2531FE355179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31B6556-04B2-4D20-BB3B-C1154C768033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="660" windowWidth="16476" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3504" yWindow="2076" windowWidth="16476" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RedDot" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -36,378 +36,298 @@
     <t>string</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
     <t>desciption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>任务系统</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>日常任务</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>周常任务</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>成就任务</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>成就系统</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>个人成就</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>公会成就</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>商城系统</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>金币商城</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>钻石商城</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>限时商城</t>
+  </si>
+  <si>
+    <t>1.4</t>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日常任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周常任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钻石商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限时商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>每日签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>累计签到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
   <si>
     <t>公告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>角色系统</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>角色创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
   </si>
   <si>
     <t>角色升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>技能系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装备系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战斗系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
   </si>
   <si>
     <t>PVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排位赛系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>社交系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>4.1</t>
   </si>
   <si>
     <t>好友系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
   <si>
     <t>公会系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>聊天系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
   <si>
     <t>个人排行榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>5.2</t>
   </si>
   <si>
     <t>公会排行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
   <si>
     <t>服务器排行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priority</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -768,7 +688,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -782,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -804,373 +724,373 @@
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
